--- a/Team-Data/2007-08/3-29-2007-08.xlsx
+++ b/Team-Data/2007-08/3-29-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -759,13 +826,13 @@
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
         <v>27</v>
@@ -798,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -956,7 +1023,7 @@
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
@@ -989,13 +1056,13 @@
         <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
         <v>45</v>
       </c>
       <c r="G4" t="n">
-        <v>0.384</v>
+        <v>0.375</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J4" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K4" t="n">
         <v>0.447</v>
@@ -1063,25 +1130,25 @@
         <v>0.367</v>
       </c>
       <c r="O4" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P4" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.709</v>
+        <v>0.711</v>
       </c>
       <c r="R4" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S4" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T4" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U4" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
         <v>14.8</v>
@@ -1102,13 +1169,13 @@
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.6</v>
+        <v>-4.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1120,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1129,7 +1196,7 @@
         <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1150,13 +1217,13 @@
         <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU4" t="n">
         <v>19</v>
@@ -1168,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1180,11 +1247,11 @@
         <v>16</v>
       </c>
       <c r="BB4" t="n">
+        <v>22</v>
+      </c>
+      <c r="BC4" t="n">
         <v>23</v>
       </c>
-      <c r="BC4" t="n">
-        <v>22</v>
-      </c>
       <c r="BD4" t="n">
         <v>10</v>
       </c>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
         <v>44</v>
       </c>
       <c r="G5" t="n">
-        <v>0.397</v>
+        <v>0.389</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1233,7 +1300,7 @@
         <v>84.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
@@ -1245,19 +1312,19 @@
         <v>0.362</v>
       </c>
       <c r="O5" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R5" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
         <v>43.6</v>
@@ -1272,7 +1339,7 @@
         <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y5" t="n">
         <v>5.8</v>
@@ -1284,13 +1351,13 @@
         <v>21.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,10 +1369,10 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1320,10 +1387,10 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
@@ -1344,10 +1411,10 @@
         <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1362,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="BB5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>0.548</v>
+        <v>0.556</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
       </c>
       <c r="I6" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O6" t="n">
         <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.721</v>
       </c>
       <c r="R6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S6" t="n">
         <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U6" t="n">
         <v>19.9</v>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.1</v>
@@ -1457,22 +1524,22 @@
         <v>5</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA6" t="n">
         <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1484,25 +1551,25 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI6" t="n">
         <v>22</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
         <v>21</v>
@@ -1517,13 +1584,13 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV6" t="n">
         <v>10</v>
@@ -1535,7 +1602,7 @@
         <v>10</v>
       </c>
       <c r="AY6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ6" t="n">
         <v>17</v>
@@ -1544,7 +1611,7 @@
         <v>24</v>
       </c>
       <c r="BB6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1699,7 +1766,7 @@
         <v>21</v>
       </c>
       <c r="AS7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT7" t="n">
         <v>7</v>
@@ -1708,7 +1775,7 @@
         <v>21</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
         <v>29</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.616</v>
+        <v>0.611</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.467</v>
@@ -1785,10 +1852,10 @@
         <v>6.9</v>
       </c>
       <c r="M8" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.357</v>
+        <v>0.36</v>
       </c>
       <c r="O8" t="n">
         <v>22.8</v>
@@ -1800,16 +1867,16 @@
         <v>0.756</v>
       </c>
       <c r="R8" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T8" t="n">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
       <c r="U8" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="V8" t="n">
         <v>14.7</v>
@@ -1824,31 +1891,31 @@
         <v>4.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="AC8" t="n">
         <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1863,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>16</v>
@@ -1881,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -1940,58 +2007,58 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.712</v>
+        <v>0.708</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J9" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K9" t="n">
         <v>0.459</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M9" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O9" t="n">
         <v>18.5</v>
       </c>
       <c r="P9" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R9" t="n">
         <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T9" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U9" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
@@ -2000,25 +2067,25 @@
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA9" t="n">
         <v>19.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.5</v>
+        <v>97.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,13 +2097,13 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2048,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>19</v>
@@ -2063,13 +2130,13 @@
         <v>11</v>
       </c>
       <c r="AS9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT9" t="n">
         <v>22</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2084,13 +2151,13 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
       </c>
       <c r="BB9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
         <v>44</v>
       </c>
       <c r="F10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.611</v>
+        <v>0.62</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,19 +2207,19 @@
         <v>41.4</v>
       </c>
       <c r="J10" t="n">
-        <v>89.90000000000001</v>
+        <v>89.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L10" t="n">
         <v>9.5</v>
       </c>
       <c r="M10" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O10" t="n">
         <v>18.8</v>
@@ -2161,16 +2228,16 @@
         <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R10" t="n">
         <v>12.5</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U10" t="n">
         <v>22.6</v>
@@ -2194,22 +2261,22 @@
         <v>21.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>111.1</v>
+        <v>111</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
@@ -2233,7 +2300,7 @@
         <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2251,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>7</v>
@@ -2275,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>4</v>
@@ -2406,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2427,7 +2494,7 @@
         <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2445,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2615,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>25</v>
@@ -2624,7 +2691,7 @@
         <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -2668,40 +2735,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v>51</v>
       </c>
       <c r="G13" t="n">
-        <v>0.301</v>
+        <v>0.292</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J13" t="n">
         <v>78.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
         <v>4.2</v>
       </c>
       <c r="M13" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.32</v>
+        <v>0.324</v>
       </c>
       <c r="O13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P13" t="n">
         <v>26.8</v>
@@ -2719,34 +2786,34 @@
         <v>39.7</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
         <v>14.3</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y13" t="n">
         <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.5</v>
+        <v>-6.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2767,7 +2834,7 @@
         <v>28</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2797,7 +2864,7 @@
         <v>29</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2806,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="AX13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
         <v>15</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2970,7 +3037,7 @@
         <v>15</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>6</v>
@@ -2997,7 +3064,7 @@
         <v>14</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
         <v>19</v>
       </c>
       <c r="F15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" t="n">
-        <v>0.26</v>
+        <v>0.264</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3050,19 +3117,19 @@
         <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.453</v>
       </c>
       <c r="L15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O15" t="n">
         <v>18.6</v>
@@ -3077,10 +3144,10 @@
         <v>10.4</v>
       </c>
       <c r="S15" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T15" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U15" t="n">
         <v>19.1</v>
@@ -3089,13 +3156,13 @@
         <v>15.5</v>
       </c>
       <c r="W15" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X15" t="n">
         <v>4.9</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
         <v>19.6</v>
@@ -3107,28 +3174,28 @@
         <v>100.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3140,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3170,7 +3237,7 @@
         <v>28</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>19</v>
@@ -3179,7 +3246,7 @@
         <v>4</v>
       </c>
       <c r="BA15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>24</v>
@@ -3322,13 +3389,13 @@
         <v>24</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
         <v>25</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
         <v>0.446</v>
@@ -3435,19 +3502,19 @@
         <v>23.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.737</v>
+        <v>0.735</v>
       </c>
       <c r="R17" t="n">
         <v>12.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
         <v>41.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V17" t="n">
         <v>14.5</v>
@@ -3468,13 +3535,13 @@
         <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.7</v>
+        <v>-6.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3489,10 +3556,10 @@
         <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
         <v>23</v>
@@ -3507,10 +3574,10 @@
         <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
         <v>20</v>
@@ -3528,13 +3595,13 @@
         <v>20</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>22</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -3546,10 +3613,10 @@
         <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3701,13 +3768,13 @@
         <v>12</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
         <v>20</v>
       </c>
       <c r="AU18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV18" t="n">
         <v>23</v>
@@ -3731,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="BC18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="n">
         <v>31</v>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>0.419</v>
+        <v>0.425</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
@@ -3778,7 +3845,7 @@
         <v>34.7</v>
       </c>
       <c r="J19" t="n">
-        <v>78.7</v>
+        <v>78.5</v>
       </c>
       <c r="K19" t="n">
         <v>0.442</v>
@@ -3787,7 +3854,7 @@
         <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N19" t="n">
         <v>0.349</v>
@@ -3805,10 +3872,10 @@
         <v>11.4</v>
       </c>
       <c r="S19" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T19" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U19" t="n">
         <v>23.3</v>
@@ -3817,28 +3884,28 @@
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
         <v>4.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC19" t="n">
         <v>-4.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
@@ -3856,7 +3923,7 @@
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3868,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3892,13 +3959,13 @@
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW19" t="n">
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY19" t="n">
         <v>10</v>
@@ -3907,13 +3974,13 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4038,7 +4105,7 @@
         <v>6</v>
       </c>
       <c r="AJ20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4229,13 +4296,13 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN21" t="n">
         <v>28</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>11</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4426,7 +4493,7 @@
         <v>24</v>
       </c>
       <c r="AR22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>16</v>
       </c>
       <c r="AF23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
         <v>17</v>
@@ -4599,7 +4666,7 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4638,7 +4705,7 @@
         <v>15</v>
       </c>
       <c r="BB23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" t="n">
         <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4688,28 +4755,28 @@
         <v>41.4</v>
       </c>
       <c r="J24" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.5</v>
       </c>
       <c r="L24" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N24" t="n">
         <v>0.391</v>
       </c>
       <c r="O24" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="P24" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R24" t="n">
         <v>8.6</v>
@@ -4718,13 +4785,13 @@
         <v>32.3</v>
       </c>
       <c r="T24" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U24" t="n">
         <v>26.8</v>
       </c>
       <c r="V24" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W24" t="n">
         <v>6.6</v>
@@ -4736,10 +4803,10 @@
         <v>3.8</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA24" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB24" t="n">
         <v>109.9</v>
@@ -4748,16 +4815,16 @@
         <v>4.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="n">
         <v>18</v>
@@ -4766,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4778,13 +4845,13 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>6</v>
@@ -4814,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" t="n">
         <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>0.514</v>
+        <v>0.521</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>79.7</v>
+        <v>79.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L25" t="n">
         <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.376</v>
+        <v>0.379</v>
       </c>
       <c r="O25" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P25" t="n">
         <v>22.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R25" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S25" t="n">
         <v>29.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U25" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V25" t="n">
         <v>13.1</v>
@@ -4924,85 +4991,85 @@
         <v>20.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
         <v>21</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
         <v>16</v>
       </c>
       <c r="AV25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA25" t="n">
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>3</v>
@@ -5306,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>8</v>
       </c>
       <c r="AN27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5345,7 +5412,7 @@
         <v>21</v>
       </c>
       <c r="AU27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5366,7 +5433,7 @@
         <v>22</v>
       </c>
       <c r="BB27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC27" t="n">
         <v>7</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5524,7 +5591,7 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU28" t="n">
         <v>15</v>
@@ -5542,13 +5609,13 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>16</v>
@@ -5667,7 +5734,7 @@
         <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
         <v>10</v>
@@ -5733,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>6.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5885,7 +5952,7 @@
         <v>14</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>12</v>
@@ -6049,7 +6116,7 @@
         <v>14</v>
       </c>
       <c r="AM31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-29-2007-08</t>
+          <t>2008-03-29</t>
         </is>
       </c>
     </row>
